--- a/Kubing/BLD/MemoHelper/comms.xlsx
+++ b/Kubing/BLD/MemoHelper/comms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onlin\IdeaProjects\Annet\einarkl.github.io\Kubing\BLD\MemoHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECA498C-EEC3-4E24-8C09-EC4E31A601E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64091155-6F7E-40C3-BB55-D132E8F4D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC39DA97-A008-4187-BE46-1A3FD252B4A6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="956">
   <si>
     <t>Edges</t>
   </si>
@@ -2674,13 +2674,241 @@
   </si>
   <si>
     <t>UFL-UBL</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>B' R B U R2 U' M2 U R2 U' B' R' B</t>
+  </si>
+  <si>
+    <t>R' U R U' M2 U R' U' R</t>
+  </si>
+  <si>
+    <t>B' R B M2 B' R' B</t>
+  </si>
+  <si>
+    <t>U2 M' U2 M'</t>
+  </si>
+  <si>
+    <t>D M' U R2 U' M U R2 U' D' M2</t>
+  </si>
+  <si>
+    <t>L U' L' U M2 U' L U L'</t>
+  </si>
+  <si>
+    <t>B L' B' M2 B L B'</t>
+  </si>
+  <si>
+    <t>Uw' L' Uw M2 Uw' L Uw</t>
+  </si>
+  <si>
+    <t>U' L U M2 U' L' U</t>
+  </si>
+  <si>
+    <t>U R' U' M2 U R U'</t>
+  </si>
+  <si>
+    <t>Uw R Uw' M2 Uw R' Uw'</t>
+  </si>
+  <si>
+    <t>B' R2 B M2 B' R2 B</t>
+  </si>
+  <si>
+    <t>U R U' M2 U R' U'</t>
+  </si>
+  <si>
+    <t>U' L' U M2 U' L U</t>
+  </si>
+  <si>
+    <t>B L2 B' M2 B L2 B'</t>
+  </si>
+  <si>
+    <t>M2 D U R2 U' M' U R2 U' M D'</t>
+  </si>
+  <si>
+    <t>M U2 M U2</t>
+  </si>
+  <si>
+    <t>B' R' B M2 B' R B</t>
+  </si>
+  <si>
+    <t>U R2 U' M2 U R2 U'</t>
+  </si>
+  <si>
+    <t>B L B' M2 B L' B'</t>
+  </si>
+  <si>
+    <t>U' L2 U M2 U' L2 U</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>UBR</t>
+  </si>
+  <si>
+    <t>RUF</t>
+  </si>
+  <si>
+    <t>UFR</t>
+  </si>
+  <si>
+    <t>UFL</t>
+  </si>
+  <si>
+    <t>LDB</t>
+  </si>
+  <si>
+    <t>FUR</t>
+  </si>
+  <si>
+    <t>DBR</t>
+  </si>
+  <si>
+    <t>DFR</t>
+  </si>
+  <si>
+    <t>DFL</t>
+  </si>
+  <si>
+    <t>DBL</t>
+  </si>
+  <si>
+    <t>R U' R' U' R U R' F' R U R' U' R' F R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D' R: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R F: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D F': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R2 F: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D' F': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F D: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F' D: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F2 D: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[D2 R: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R2: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R D': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F R': </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[F: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2700,6 +2928,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2722,10 +2954,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3040,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDF3279-3C4C-45B8-9649-EA927D34DF21}">
-  <dimension ref="A1:K225"/>
+  <dimension ref="A1:T225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,10 +3289,18 @@
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3072,8 +3313,14 @@
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>467</v>
       </c>
@@ -3098,8 +3345,27 @@
       <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T2" s="1" t="str">
+        <f>CHAR(34)&amp;P2&amp;CHAR(34)&amp;" : "&amp;CHAR(34)&amp;Q2&amp;"["&amp;R2&amp;"]"&amp;CHAR(34)&amp;","</f>
+        <v>"BDL" : "[D' R: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>468</v>
       </c>
@@ -3124,8 +3390,27 @@
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T3" s="1" t="str">
+        <f t="shared" ref="T3:T22" si="0">CHAR(34)&amp;P3&amp;CHAR(34)&amp;" : "&amp;CHAR(34)&amp;Q3&amp;"["&amp;R3&amp;"]"&amp;CHAR(34)&amp;","</f>
+        <v>"BDR" : "[D': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>469</v>
       </c>
@@ -3150,8 +3435,27 @@
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"BUR" : "[R F: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
@@ -3176,8 +3480,27 @@
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DBL" : "[D F': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>471</v>
       </c>
@@ -3202,8 +3525,27 @@
       <c r="K6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DBR" : "[R2 F: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>472</v>
       </c>
@@ -3228,8 +3570,27 @@
       <c r="K7" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DFL" : "[F': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>473</v>
       </c>
@@ -3254,8 +3615,27 @@
       <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"DFR" : "[D' F': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>474</v>
       </c>
@@ -3280,8 +3660,27 @@
       <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"FDL" : "[D: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>475</v>
       </c>
@@ -3306,8 +3705,27 @@
       <c r="K10" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"FDR" : "[F D: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>476</v>
       </c>
@@ -3332,8 +3750,27 @@
       <c r="K11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"FUL" : "[F' D: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>477</v>
       </c>
@@ -3358,8 +3795,27 @@
       <c r="K12" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"FUR" : "[F2 D: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>478</v>
       </c>
@@ -3378,8 +3834,27 @@
       <c r="K13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"LDB" : "[D2: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>479</v>
       </c>
@@ -3398,8 +3873,27 @@
       <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"LDF" : "[D2 R: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>480</v>
       </c>
@@ -3418,8 +3912,27 @@
       <c r="K15" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"LUF" : "[F2: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>481</v>
       </c>
@@ -3432,8 +3945,27 @@
       <c r="H16" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"RDB" : "[R: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>482</v>
       </c>
@@ -3446,8 +3978,24 @@
       <c r="H17" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"RDF" : "[R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>483</v>
       </c>
@@ -3460,8 +4008,27 @@
       <c r="H18" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M18" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"RUB" : "[R': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>484</v>
       </c>
@@ -3474,8 +4041,27 @@
       <c r="H19" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"RUF" : "[R2: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>485</v>
       </c>
@@ -3488,8 +4074,27 @@
       <c r="H20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"UBR" : "[R D': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>486</v>
       </c>
@@ -3502,8 +4107,27 @@
       <c r="H21" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M21" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"UFL" : "[F R': [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>487</v>
       </c>
@@ -3516,8 +4140,27 @@
       <c r="H22" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M22" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>"UFR" : "[F: [R U' R' U' R U R' F' R U R' U' R' F R]",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>488</v>
       </c>
@@ -3530,8 +4173,15 @@
       <c r="H23" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>489</v>
       </c>
@@ -3545,7 +4195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>490</v>
       </c>
@@ -3559,7 +4209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>491</v>
       </c>
@@ -3573,7 +4223,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>492</v>
       </c>
@@ -3587,7 +4237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>493</v>
       </c>
@@ -3601,7 +4251,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>494</v>
       </c>
@@ -3615,7 +4265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>495</v>
       </c>
@@ -3629,7 +4279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>496</v>
       </c>
@@ -3643,7 +4293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>497</v>
       </c>
@@ -6150,6 +6800,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:U22">
+    <sortCondition ref="R2:R22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>